--- a/menu_files/staff_weekly_orderSheet_St._Brigid’s_National_School.xlsx
+++ b/menu_files/staff_weekly_orderSheet_St._Brigid’s_National_School.xlsx
@@ -7,46 +7,36 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Miss Brigid 1 - Monday" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Miss Brigid 2 - Monday" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Miss Brigid 3 - Monday" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Miss Brigid 4 - Monday" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Miss Brigid 5 - Monday" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Miss Brigid 6 - Monday" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Mr Brigid Junior - Monday" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Miss Brigid Senior - Monday" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Miss Brigid 1 - Tuesday" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Miss Brigid 2 - Tuesday" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Miss Brigid 3 - Tuesday" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Miss Brigid 4 - Tuesday" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Miss Brigid 5 - Tuesday" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Miss Brigid 6 - Tuesday" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Mr Brigid Junior - Tuesday" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Miss Brigid Senior - Tuesday" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Miss Brigid 1 - Wednesday" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Miss Brigid 2 - Wednesday" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Miss Brigid 3 - Wednesday" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Miss Brigid 4 - Wednesday" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Miss Brigid 5 - Wednesday" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Miss Brigid 6 - Wednesday" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Mr Brigid Junior - Wednesday" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Miss Brigid Senior - Wednesday" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Miss Brigid 1 - Thursday" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Miss Brigid 2 - Thursday" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Miss Brigid 3 - Thursday" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Miss Brigid 4 - Thursday" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Miss Brigid 5 - Thursday" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Miss Brigid 6 - Thursday" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="Mr Brigid Junior - Thursday" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="Miss Brigid Senior - Thursday" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="Miss Brigid 1 - Friday" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="Miss Brigid 2 - Friday" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="Miss Brigid 3 - Friday" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="Miss Brigid 4 - Friday" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="Miss Brigid 5 - Friday" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="Miss Brigid 6 - Friday" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="Mr Brigid Junior - Friday" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="Miss Brigid Senior - Friday" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="Miss Brigid 3 - Monday" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Miss Brigid 3 - Monday1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Miss Brigid 4 - Monday" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Mr Brigid Junior - Monday" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Miss Brigid Senior - Monday" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Canteen Total Monday" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Miss Brigid 3 - Tuesday" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Miss Brigid 3 - Tuesday1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Miss Brigid 4 - Tuesday" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mr Brigid Junior - Tuesday" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Miss Brigid Senior - Tuesday" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Canteen Total Tuesday" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Miss Brigid 3 - Wednesday" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Miss Brigid 3 - Wednesday1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Miss Brigid 4 - Wednesday" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Mr Brigid Junior - Wednesday" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Miss Brigid Senior - Wednesday" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Canteen Total Wednesday" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Miss Brigid 3 - Thursday" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Miss Brigid 3 - Thursday1" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Miss Brigid 4 - Thursday" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Mr Brigid Junior - Thursday" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Miss Brigid Senior - Thursday" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Canteen Total Thursday" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Miss Brigid 3 - Friday" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Miss Brigid 3 - Friday1" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Miss Brigid 4 - Friday" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Mr Brigid Junior - Friday" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Miss Brigid Senior - Friday" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Canteen Total Friday" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -509,74 +499,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid 1 Order Sheet for Monday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>ahmed_hashir_1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="0000FF00"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Miss Brigid 2 Order Sheet for Tuesday</t>
+          <t>Miss Brigid 3 Order Sheet for Monday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -615,7 +538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="0000FF00"/>
@@ -638,7 +561,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid 3 Order Sheet for Tuesday</t>
+          <t>Mr Brigid Junior Order Sheet for Tuesday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -677,7 +600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="0000FF00"/>
@@ -700,7 +623,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid 4 Order Sheet for Tuesday</t>
+          <t>Miss Brigid Senior Order Sheet for Tuesday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -739,10 +662,88 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="0092D050"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Canteen Staff Sheet for Tuesday of St. Brigid’s National School 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Teacher/Class Year</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Savoury Beef Pie</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="0000FF00"/>
+    <tabColor rgb="000000FF"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -762,7 +763,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid 5 Order Sheet for Tuesday</t>
+          <t>Miss Brigid 3 Order Sheet for Wednesday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -804,7 +805,7 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="0000FF00"/>
+    <tabColor rgb="000000FF"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -824,7 +825,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid 6 Order Sheet for Tuesday</t>
+          <t>Miss Brigid 3 Order Sheet for Wednesday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -866,7 +867,7 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="0000FF00"/>
+    <tabColor rgb="000000FF"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -886,7 +887,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mr Brigid Junior Order Sheet for Tuesday</t>
+          <t>Miss Brigid 4 Order Sheet for Wednesday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -928,7 +929,7 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="0000FF00"/>
+    <tabColor rgb="000000FF"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -948,7 +949,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid Senior Order Sheet for Tuesday</t>
+          <t>Mr Brigid Junior Order Sheet for Wednesday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -1010,74 +1011,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid 1 Order Sheet for Wednesday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>ahmed_hashir_1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Pasta Bolognese</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="000000FF"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Miss Brigid 2 Order Sheet for Wednesday</t>
+          <t>Miss Brigid Senior Order Sheet for Wednesday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -1116,10 +1050,88 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="0092D050"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Canteen Staff Sheet for Wednesday of St. Brigid’s National School 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Teacher/Class Year</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Pasta Bolognese</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="000000FF"/>
+    <tabColor rgb="00FFFF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1139,7 +1151,74 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid 3 Order Sheet for Wednesday</t>
+          <t>Miss Brigid 3 Order Sheet for Thursday of St. Brigid’s National School 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Items</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>ahmed_hashir</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FF0000"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Miss Brigid 3 Order Sheet for Monday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -1178,10 +1257,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF0000"/>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FFFF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1201,7 +1280,74 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid 2 Order Sheet for Monday</t>
+          <t>Miss Brigid 3 Order Sheet for Thursday of St. Brigid’s National School 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Items</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>ahmed_hashir</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FFFF00"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Miss Brigid 4 Order Sheet for Thursday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -1240,10 +1386,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="000000FF"/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FFFF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1263,7 +1409,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid 4 Order Sheet for Wednesday</t>
+          <t>Mr Brigid Junior Order Sheet for Thursday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -1302,10 +1448,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="000000FF"/>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FFFF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1325,7 +1471,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid 5 Order Sheet for Wednesday</t>
+          <t>Miss Brigid Senior Order Sheet for Thursday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -1364,10 +1510,108 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="000000FF"/>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="0092D050"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Canteen Staff Sheet for Thursday of St. Brigid’s National School 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Teacher/Class Year</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Miss Brigid 3</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>ahmed_hashir</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FF00FF"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1387,7 +1631,141 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid 6 Order Sheet for Wednesday</t>
+          <t>Miss Brigid 3 Order Sheet for Friday of St. Brigid’s National School 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Items</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>ahmed_hashir</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FF00FF"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Miss Brigid 3 Order Sheet for Friday of St. Brigid’s National School 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Items</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>ahmed_hashir</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FF00FF"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Miss Brigid 4 Order Sheet for Friday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -1426,10 +1804,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="000000FF"/>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FF00FF"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1449,7 +1827,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mr Brigid Junior Order Sheet for Wednesday</t>
+          <t>Mr Brigid Junior Order Sheet for Friday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -1488,10 +1866,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="000000FF"/>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FF00FF"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1511,7 +1889,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid Senior Order Sheet for Wednesday</t>
+          <t>Miss Brigid Senior Order Sheet for Friday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -1550,10 +1928,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FFFF00"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FF0000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1573,74 +1951,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid 1 Order Sheet for Thursday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>ahmed_hashir_1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FFFF00"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Miss Brigid 2 Order Sheet for Thursday</t>
+          <t>Miss Brigid 4 Order Sheet for Monday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -1679,10 +1990,108 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FFFF00"/>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="0092D050"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Canteen Staff Sheet for Friday of St. Brigid’s National School 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Teacher/Class Year</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Miss Brigid 3</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>ahmed_hashir</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pulled Pork Bap with BBQ Sauce and Crispy Onions</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FF0000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1702,7 +2111,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid 3 Order Sheet for Thursday</t>
+          <t>Mr Brigid Junior Order Sheet for Monday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -1741,10 +2150,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FFFF00"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FF0000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1764,7 +2173,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid 4 Order Sheet for Thursday</t>
+          <t>Miss Brigid Senior Order Sheet for Monday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -1803,10 +2212,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FFFF00"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="0092D050"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Canteen Staff Sheet for Monday of St. Brigid’s National School 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Teacher/Class Year</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="0000FF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1826,7 +2313,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid 5 Order Sheet for Thursday</t>
+          <t>Miss Brigid 3 Order Sheet for Tuesday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -1865,10 +2352,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF0000"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="0000FF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1888,7 +2375,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid 3 Order Sheet for Monday</t>
+          <t>Miss Brigid 3 Order Sheet for Tuesday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -1927,10 +2414,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FFFF00"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="0000FF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1950,7 +2437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Miss Brigid 6 Order Sheet for Thursday</t>
+          <t>Miss Brigid 4 Order Sheet for Tuesday of St. Brigid’s National School 7</t>
         </is>
       </c>
     </row>
@@ -1987,1006 +2474,4 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FFFF00"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Mr Brigid Junior Order Sheet for Thursday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FFFF00"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Miss Brigid Senior Order Sheet for Thursday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF00FF"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Miss Brigid 1 Order Sheet for Friday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>ahmed_hashir_1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Pulled Pork Bap with BBQ Sauce and Crispy Onions</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF00FF"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Miss Brigid 2 Order Sheet for Friday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF00FF"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Miss Brigid 3 Order Sheet for Friday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF00FF"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Miss Brigid 4 Order Sheet for Friday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF00FF"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Miss Brigid 5 Order Sheet for Friday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF00FF"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Miss Brigid 6 Order Sheet for Friday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF00FF"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Mr Brigid Junior Order Sheet for Friday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF0000"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Miss Brigid 4 Order Sheet for Monday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF00FF"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Miss Brigid Senior Order Sheet for Friday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF0000"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Miss Brigid 5 Order Sheet for Monday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF0000"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Miss Brigid 6 Order Sheet for Monday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF0000"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Mr Brigid Junior Order Sheet for Monday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF0000"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Miss Brigid Senior Order Sheet for Monday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="0000FF00"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Miss Brigid 1 Order Sheet for Tuesday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>ahmed_hashir_1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Savoury Beef Pie</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>